--- a/_testing/output/tablex_test5.xlsx
+++ b/_testing/output/tablex_test5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="9">
   <si>
     <t/>
   </si>
@@ -46,10 +46,198 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="45">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="89">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -248,7 +436,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -468,11 +656,223 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border/>
+    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -593,6 +993,128 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="36" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="37" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="40" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="45" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="49" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="50" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="51" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="52" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="53" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="54" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="55" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="57" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="59" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="60" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="61" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="62" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,47 +1133,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" style="33" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" style="34" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="62" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="64" t="s">
         <v>8</v>
       </c>
     </row>
